--- a/sources/case/Types.xlsx
+++ b/sources/case/Types.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sam\git\QiFeiApi\sources\case\"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="57">
   <si>
     <t>API</t>
   </si>
@@ -62,135 +62,184 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>/automation/v1/approval/types/95d72f09-0f75-11e7-8ff3-00163e007053/op/all</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>uuid</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>form_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>form_name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>description</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>tenant_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>00b19169-fc38-4e51-a99f-98f31ccaa46d</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>active</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_url</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>category</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>notice_type</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>no</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>duplicate_type</t>
+  </si>
+  <si>
+    <t>has_approval</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>y</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sub_category</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>notice_type</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>duplicate_type</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>process_list</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cc_list</t>
+  </si>
+  <si>
+    <t>types_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>types_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>duplicate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>95de83f6-0f75-11e7-8ff3-00163e007053</t>
+  </si>
+  <si>
+    <t>请假</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>leave_request</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>attendance</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>duplicate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>approvals</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"uuid":"95defc56-0f75-11e7-8ff3-00163e007053","approvers":[{"uuid":"95df24ba-0f75-11e7-8ff3-00163e007053","type":"reporting_to","value":"1"},{"uuid":"","type":"login_user_department_manager","value":""},{"uuid":"","type":"department_manager","value":"c8e22cfe-0f75-11e7-9aa4-00163e007053"},{"uuid":"","type":"employee","value":"7e254521-b2e4-11e7-93d8-5254001aba5d"}],"target_type":"tenant","target_value":"\"00b19169-fc38-4e51-a99f-98f31ccaa46d\""}]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>["95defc56-0f75-11e7-8ff3-00163e007053"]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>types_2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>many_times</t>
+  </si>
+  <si>
+    <t>[{"employee_id":"b8a23753-0f75-11e7-9aa4-00163e007053"}]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>95d72f09-0f75-11e7-8ff3-00163e007053</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>name</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>调整</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>form_id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>form_name</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>employee_adjust</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>description</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>approvals</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>tenant_id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>00b19169-fc38-4e51-a99f-98f31ccaa46d</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>active</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>icon_url</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>category</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>hr</t>
-  </si>
-  <si>
-    <t>notice_type</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>no</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>duplicate_type</t>
-  </si>
-  <si>
-    <t>many_times</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>has_approval</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>y</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>sub_category</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>["95d79cad-0f75-11e7-8ff3-00163e007053","04ebe5e7-b25e-11e7-b116-5254001aba5d","04ecab18-b25e-11e7-b116-5254001aba5d","04ed65c5-b25e-11e7-b116-5254001aba5d","04ee1082-b25e-11e7-b116-5254001aba5d"]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>notice_type</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>duplicate_type</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>many_times</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>process_list</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[{"uuid":"95d79cad-0f75-11e7-8ff3-00163e007053","approvers":[{"uuid":"95d8921a-0f75-11e7-8ff3-00163e007053","type":"login_user_department_manager","value":""},{"uuid":"","type":"reporting_to","value":"1"},{"uuid":"","type":"department_manager","value":"d495a1cc-0f75-11e7-9aa4-00163e007053"},{"uuid":"","type":"employee","value":"b8a23753-0f75-11e7-9aa4-00163e007053"}],"target_type":"tenant","target_value":"\"00b19169-fc38-4e51-a99f-98f31ccaa46d\""},{"uuid":"","approvers":[{"uuid":"","type":"login_user_department_manager","value":""}],"target_type":"sponsor","target_value":"{\"department\":[\"d495a1cc-0f75-11e7-9aa4-00163e007053\"]}"},{"uuid":"","approvers":[{"uuid":"","type":"reporting_to","value":"2"}],"target_type":"duration","target_value":"{\"symbol\":\"==\",\"unit\":\"d\",\"number\":\"3\"}"},{"uuid":"","approvers":[{"uuid":"","type":"department_manager","value":"c8e22cfe-0f75-11e7-9aa4-00163e007053"}],"target_type":"money","target_value":"{\"symbol\":\"==\",\"unit\":\"元\",\"number\":\"2000\"}"},{"uuid":"","approvers":[{"uuid":"","type":"employee","value":"b8a23753-0f75-11e7-9aa4-00163e007053"}],"target_type":"sponsor","target_value":"{\"employee\":[\"b8a23753-0f75-11e7-9aa4-00163e007053\"]}"}]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>cc_list</t>
-  </si>
-  <si>
-    <t>[{"employee_id":"b8a23753-0f75-11e7-9aa4-00163e007053"}]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>types_1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>types_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>["95d79cad-0f75-11e7-8ff3-00163e007053"]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>type_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/automation/v1/approval/types/{type_id}/op/all</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>95d72f09-0f75-11e7-8ff3-00163e007053</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"uuid":"95d79cad-0f75-11e7-8ff3-00163e007053","approvers":[{"uuid":"95d8921a-0f75-11e7-8ff3-00163e007053","type":"login_user_department_manager","value":""},{"uuid":"","type":"reporting_to","value":"1"},{"uuid":"","type":"department_manager","value":"d495a1cc-0f75-11e7-9aa4-00163e007053"},{"uuid":"","type":"employee","value":"b8a23753-0f75-11e7-9aa4-00163e007053"}],"target_type":"tenant","target_value":"\"00b19169-fc38-4e51-a99f-98f31ccaa46d\""},{"uuid":"04ebe5e7-b25e-11e7-b116-5254001aba5d","approvers":[{"uuid":"","type":"login_user_department_manager","value":""}],"target_type":"sponsor","target_value":"{\"department\":[\"d495a1cc-0f75-11e7-9aa4-00163e007053\"]}"},{"uuid":"04ecab18-b25e-11e7-b116-5254001aba5d","approvers":[{"uuid":"","type":"reporting_to","value":"2"}],"target_type":"duration","target_value":"{\"symbol\":\"==\",\"unit\":\"d\",\"number\":\"3\"}"},{"uuid":"04ed65c5-b25e-11e7-b116-5254001aba5d","approvers":[{"uuid":"","type":"department_manager","value":"c8e22cfe-0f75-11e7-9aa4-00163e007053"}],"target_type":"money","target_value":"{\"symbol\":\"==\",\"unit\":\"元\",\"number\":\"2000\"}"},{"uuid":"04ee1082-b25e-11e7-b116-5254001aba5d","approvers":[{"uuid":"","type":"employee","value":"b8a23753-0f75-11e7-9aa4-00163e007053"}],"target_type":"sponsor","target_value":"{\"employee\":[\"b8a23753-0f75-11e7-9aa4-00163e007053\"]}"}]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>95de83f6-0f75-11e7-8ff3-00163e007053</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -198,7 +247,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -236,6 +285,12 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -262,7 +317,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -271,6 +326,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -556,7 +617,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -596,8 +657,8 @@
       <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>10</v>
+      <c r="D2" s="4" t="s">
+        <v>53</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>5</v>
@@ -611,57 +672,84 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="57" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="57" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="C1" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
         <v>33</v>
-      </c>
-      <c r="E1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E2" t="s">
-        <v>39</v>
       </c>
       <c r="F2" t="s">
         <v>41</v>
+      </c>
+      <c r="G2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -672,21 +760,21 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="210.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="40.75" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="6.25" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="38.75" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="7.625" bestFit="1" customWidth="1"/>
@@ -702,85 +790,121 @@
         <v>6</v>
       </c>
       <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
         <v>11</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
         <v>13</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" t="s">
         <v>15</v>
       </c>
-      <c r="E1" t="s">
+      <c r="I1" t="s">
         <v>16</v>
       </c>
-      <c r="F1" t="s">
+      <c r="J1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H2" t="s">
         <v>18</v>
       </c>
-      <c r="G1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K1" t="s">
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" t="s">
+        <v>39</v>
+      </c>
+      <c r="N2" t="s">
         <v>25</v>
       </c>
-      <c r="L1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N1" t="s">
-        <v>31</v>
-      </c>
-      <c r="O1" t="s">
-        <v>33</v>
-      </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="3" spans="1:15" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>43</v>
       </c>
-      <c r="B2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="B3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L3" t="s">
         <v>22</v>
       </c>
-      <c r="K2" t="s">
-        <v>26</v>
-      </c>
-      <c r="L2" t="s">
-        <v>28</v>
-      </c>
-      <c r="M2" t="s">
-        <v>30</v>
-      </c>
-      <c r="N2" t="s">
-        <v>32</v>
+      <c r="M3" t="s">
+        <v>44</v>
+      </c>
+      <c r="N3" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>